--- a/medicine/Mort/Décès_en_1927/Décès_en_1927.xlsx
+++ b/medicine/Mort/Décès_en_1927/Décès_en_1927.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1927</t>
+          <t>Décès_en_1927</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1927</t>
+          <t>Décès_en_1927</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,19 +540,92 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Armand Berton, peintre, illustrateur et graveur français (° 16 septembre 1854).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Armand Berton, peintre, illustrateur et graveur français (° 16 septembre 1854).
 Léon Koëlla-Leenhoff, agent de change et musicien français (° 28 janvier 1852).
-Marius Rey, peintre français (° 28 juin 1836).
-Janvier
-7 janvier : Nikólaos Kalogerópoulos, homme politique grec (° 1851).
+Marius Rey, peintre français (° 28 juin 1836).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1927</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1927</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>7 janvier : Nikólaos Kalogerópoulos, homme politique grec (° 1851).
 10 janvier : August Allebé, peintre et lithographe néerlandais (° 19 avril 1838).
 15 janvier : Julien Koszul, compositeur et organiste français (° 4 décembre 1844).
 23 janvier : Emma Gillett, avocate américaine (° 30 juillet 1852).
 25 janvier : Pompeo Mariani, peintre italien (° 9 septembre 1857).
-29 janvier : Edward Lawrence Bader, homme politique américain (° 8 juin 1874).
-Février
-5 février : Hazrat Inayat Khan, écrivain, philosophe, enseignant et musicien indien (° 5 juillet 1882).
+29 janvier : Edward Lawrence Bader, homme politique américain (° 8 juin 1874).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1927</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1927</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5 février : Hazrat Inayat Khan, écrivain, philosophe, enseignant et musicien indien (° 5 juillet 1882).
 6 février : Per Leander-Engström, peintre suédois (° 27 février 1886).
 7 février : Myfit Libohova, homme politique albanais (° 1876).
 8 février : Jules Louis Rame, peintre français (° 17 décembre 1855).
@@ -552,9 +637,43 @@
 19 février :
 Robert Fuchs, compositeur autrichien
 Alfred Wilhelm Strohl, mécène, écrivain, peintre, sculpteur et musicien amateur français naturalisé italien (° 4 mai 1847).
-? février : Alberto Vianelli, peintre italien (° 5 juin 1841).
-Mars
-5 mars : Franz Mertens, mathématicien allemand (° 20 mars 1840).
+? février : Alberto Vianelli, peintre italien (° 5 juin 1841).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1927</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1927</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5 mars : Franz Mertens, mathématicien allemand (° 20 mars 1840).
 11 mars : Claude Guillaumin, peintre et caricaturiste français (° 11 août 1842).
 16 mars : Magdeleine Real del Sarte, peintre français (° 23 juin 1853).
 17 mars : Victorine Meurent, peintre française (° 18 février 1844).
@@ -564,9 +683,43 @@
 30 mars : Jules Gabriel Hubert-Sauzeau, peintre français (° 3 septembre 1856).
 31 mars :  Émile Chaumont, peintre français (° 1877).
 Date précise inconnue :
-Gaston Fontanille, entrepreneur, éditeur et escroc français (° 11 mai 1883).
-Avril
-15 avril :
+Gaston Fontanille, entrepreneur, éditeur et escroc français (° 11 mai 1883).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1927</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1927</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>15 avril :
 Gaston Leroux, romancier français (° 6 mai 1868).
 Caroline Agnes Gray, propriétaire du Freeman's Journal (° 13 mai 1848).
 16 avril : Albert-Émile Artigue, peintre, lithographe, affichiste et professeur d'art franco-argentin (° 15 août 1850).
@@ -577,9 +730,43 @@
 25 avril : Étienne Moreau-Nélaton, peintre, céramiste, affichiste, collectionneur et historien d'art français (° 2 décembre 1859).
 29 avril :
 Hans von Volkmann, peintre allemand (° 19 mai 1860).
-Auguste François-Marie Gorguet, peintre, dessinateur, graveur et affichiste français (° 27 septembre 1862).
-Mai
-1er mai : Tetsugorō Yorozu, peintre japonais  (° 17 novembre 1885).
+Auguste François-Marie Gorguet, peintre, dessinateur, graveur et affichiste français (° 27 septembre 1862).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1927</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1927</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai : Tetsugorō Yorozu, peintre japonais  (° 17 novembre 1885).
 2 mai : Gustave Burger, homme politique français (° 6 février 1878).
 8 mai : Charles Nungesser, aviateur français (° 15 mars 1892).
 11 mai : Juan Gris (José Victoriano Gonzalez), peintre espagnol (° 23 mars 1887).
@@ -587,9 +774,43 @@
 17 mai :
 Consuelo Fould, peintre française (° 22 novembre 1862).
 Étienne Mazas, peintre et graveur français (° 9 juin 1840).
-27 mai : Boris Koustodiev, peintre russe (° 7 mars 1878).
-Juin
-1er juin : Henry Ottmann, peintre français (° 10 avril 1877).
+27 mai : Boris Koustodiev, peintre russe (° 7 mars 1878).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1927</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1927</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juin : Henry Ottmann, peintre français (° 10 avril 1877).
 4 juin : Paul Lacombe, compositeur français (° 11 juillet 1837).
 15 juin : Ottavio Bottecchia, coureur cycliste italien (° 1er août 1894).
 17 juin : Jean-Baptiste Duffaud, peintre français (° 7 janvier 1853).
@@ -598,9 +819,43 @@
 Aimé Perret, peintre français (° 29 octobre 1846).
 20 juin : Joseph Paul Meslé, peintre français (° 25 janvier 1855).
 21 juin : Lucien Ott, peintre, décorateur et dessinateur d'ameublement français (° 10 août 1872).
-26 juin : Armand Guillaumin, peintre français (° 16 février 1841).
-Juillet
-3 juillet : Gavira (Enrique Cano Iribarne), matador espagnol (° 9 janvier 1893).
+26 juin : Armand Guillaumin, peintre français (° 16 février 1841).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1927</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1927</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3 juillet : Gavira (Enrique Cano Iribarne), matador espagnol (° 9 janvier 1893).
 4 juillet : Maxime Noiré, peintre français (° 9 novembre 1861).
 10 juillet : Louise Abbéma, peintre française (° 30 octobre 1853).
 15 juillet : Constance Markievicz, révolutionnaire irlandaise (° 4 février 1868).
@@ -609,17 +864,85 @@
 19 juillet : Ahmadou Bamba, fondateur de la confrérie des Mourides au Sénégal (° 1853).
 24 juillet :
 Ryūnosuke Akutagawa, écrivain japonais (° 1er mars 1892).
-Karel Vítězslav Mašek, peintre, architecte et affichiste austro-hongrois puis tchécoslovaque (° 1er septembre 1865).
-Août
-13 août : James Oliver Curwood, romancier américain (° 12 juin 1878).
+Karel Vítězslav Mašek, peintre, architecte et affichiste austro-hongrois puis tchécoslovaque (° 1er septembre 1865).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1927</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1927</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>13 août : James Oliver Curwood, romancier américain (° 12 juin 1878).
 17 août : Richard Caton Woodville, peintre et illustrateur britannique (° 7 janvier 1856).
 23 août :
 René Poupardin, médiéviste français (° 27 février 1874).
 Bartolomeo Vanzetti (° 11 juin 1888) et Nicola Sacco (° 22 avril 1891) militants anarchistes italo-américains.
 Saad Zaghlul, homme politique égyptien (° juillet 1859).
-26 août : Henri Marre, peintre français (° 24 janvier 1858).
-Septembre
-4 septembre : Josef Klein, acteur germano-autrichien (° 3 janvier 1862).
+26 août : Henri Marre, peintre français (° 24 janvier 1858).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1927</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1927</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>4 septembre : Josef Klein, acteur germano-autrichien (° 3 janvier 1862).
 13 septembre :
 Gustave Jeanneret, peintre suisse (° 6 avril 1847).
 Gustave Krafft, architecte et  peintre français (° 29 janvier 1861).
@@ -627,9 +950,43 @@
 Hugo Ball, écrivain et poète dada allemand (° 22 février 1886).
 Arthur Bourchier, acteur et directeur de théâtre britannique (° 22 juin 1863).
 Isadora Duncan, danseuse américaine (° 26 ou 27 mai 1877).
-28 septembre : Jean-Joseph Weerts, peintre français d'origine belge (° 1er mai 1846).
-Octobre
-2 octobre : Svante August Arrhenius, chimiste suédois (° 19 février 1859).
+28 septembre : Jean-Joseph Weerts, peintre français d'origine belge (° 1er mai 1846).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1927</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1927</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2 octobre : Svante August Arrhenius, chimiste suédois (° 19 février 1859).
 7 octobre : Paul Sérusier, peintre symboliste français (° 9 novembre 1864).
 8 octobre :
 Ange Flégier, compositeur et peintre français (° 25 février 1846).
@@ -640,17 +997,85 @@
 Henri Guinier, peintre français (° 20 novembre 1867).
 21 octobre : Carel Frederik Cordes,  photographe et peintre néerlandais (° 11 février 1851).
 22 octobre : Gaston Prunier, peintre  et graveur post-impressionniste français (° 19 janvier 1863).
-26 octobre : Jūkichi Yagi, poète japonais (° 9 février 1898).
-Novembre
-4 novembre : Ole Olsen, compositeur, organiste, chef d'orchestre, tromboniste, professeur de musique et musicien militaire norvégien (° 4 juillet 1850).
+26 octobre : Jūkichi Yagi, poète japonais (° 9 février 1898).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1927</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1927</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>4 novembre : Ole Olsen, compositeur, organiste, chef d'orchestre, tromboniste, professeur de musique et musicien militaire norvégien (° 4 juillet 1850).
 5 novembre : Jean-Jacques Moreau, peintre et dessinateur français (° 14 avril 1899).
 12 novembre : Caspar Augustin Geiger, peintre allemand (° 27 août 1847).
 16 novembre : Adolf Joffé, homme politique russe puis soviétique (° 10 octobre 1883).
 18 novembre : Alfred Garcement, peintre français (° 30 octobre 1842).
 23 novembre : Alfred III de Windisch-Graetz, prince et homme politique austro-hongrois et ministre-président d'Autriche (° 31 octobre 1851).
-28 novembre : Julien Gustave Gagliardini, peintre et graveur français (° 1er mars 1846).
-Décembre
-4 décembre : Alexander Kolowrat-Krakowsky, producteur de cinéma autrichien (° 29 janvier 1886).
+28 novembre : Julien Gustave Gagliardini, peintre et graveur français (° 1er mars 1846).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1927</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1927</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>4 décembre : Alexander Kolowrat-Krakowsky, producteur de cinéma autrichien (° 29 janvier 1886).
 24 décembre : Helmer Alexandersson, compositeur suédois (° 16 novembre 1886).
 30 décembre :
 İsmail Hakkı Bey, compositeur et musicien turc de l'Empire ottoman (° 1er janvier 1865).
